--- a/data/BppTrend/Valid_Import_Files/BOE Equipment Index Factors and Percent Good Factors 2022.xlsx
+++ b/data/BppTrend/Valid_Import_Files/BOE Equipment Index Factors and Percent Good Factors 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DDeepika\APAS_Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E795AB-3553-4AF8-BFD0-8177F80842B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED940F-9F45-49AB-951A-63B56A55FA3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" tabRatio="928" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" tabRatio="928" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Agricultural ME Good Factors" sheetId="15" r:id="rId7"/>
     <sheet name="M&amp;E Good Factors" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -173,7 +173,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -749,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -772,43 +771,43 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
+      <c r="B3" s="4">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
-      <c r="B4" s="4">
-        <v>104</v>
+      <c r="B4" s="5">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
-      <c r="B5" s="5">
-        <v>107</v>
+      <c r="B5" s="6">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>2017</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -816,15 +815,15 @@
         <v>2015</v>
       </c>
       <c r="B8" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -832,15 +831,15 @@
         <v>2013</v>
       </c>
       <c r="B10" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="5">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -848,15 +847,15 @@
         <v>2011</v>
       </c>
       <c r="B12" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="5">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -864,15 +863,15 @@
         <v>2009</v>
       </c>
       <c r="B14" s="5">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
       <c r="B15" s="5">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -880,15 +879,15 @@
         <v>2007</v>
       </c>
       <c r="B16" s="5">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="5">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -896,15 +895,15 @@
         <v>2005</v>
       </c>
       <c r="B18" s="5">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="5">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -912,15 +911,15 @@
         <v>2003</v>
       </c>
       <c r="B20" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -928,11 +927,11 @@
         <v>2001</v>
       </c>
       <c r="B22" s="5">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2000</v>
       </c>
       <c r="B23" s="5">
@@ -944,15 +943,15 @@
         <v>1999</v>
       </c>
       <c r="B24" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -960,15 +959,15 @@
         <v>1997</v>
       </c>
       <c r="B26" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1996</v>
       </c>
       <c r="B27" s="5">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -976,15 +975,15 @@
         <v>1995</v>
       </c>
       <c r="B28" s="5">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1994</v>
       </c>
       <c r="B29" s="5">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -992,15 +991,15 @@
         <v>1993</v>
       </c>
       <c r="B30" s="5">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1992</v>
       </c>
       <c r="B31" s="5">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1008,15 +1007,15 @@
         <v>1991</v>
       </c>
       <c r="B32" s="5">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1990</v>
       </c>
       <c r="B33" s="5">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1024,15 +1023,15 @@
         <v>1989</v>
       </c>
       <c r="B34" s="5">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1988</v>
       </c>
       <c r="B35" s="5">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1040,15 +1039,15 @@
         <v>1987</v>
       </c>
       <c r="B36" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1986</v>
       </c>
       <c r="B37" s="5">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1056,15 +1055,15 @@
         <v>1985</v>
       </c>
       <c r="B38" s="5">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>1984</v>
       </c>
       <c r="B39" s="5">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1072,15 +1071,15 @@
         <v>1983</v>
       </c>
       <c r="B40" s="5">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>1982</v>
       </c>
       <c r="B41" s="5">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1092,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1113,16 +1112,16 @@
       <c r="A2" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
+      <c r="B3" s="10">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1130,15 +1129,15 @@
         <v>2019</v>
       </c>
       <c r="B4" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1146,15 +1145,15 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1162,15 +1161,15 @@
         <v>2015</v>
       </c>
       <c r="B8" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1178,15 +1177,15 @@
         <v>2013</v>
       </c>
       <c r="B10" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1194,15 +1193,15 @@
         <v>2011</v>
       </c>
       <c r="B12" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1210,15 +1209,15 @@
         <v>2009</v>
       </c>
       <c r="B14" s="10">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
       <c r="B15" s="10">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1226,15 +1225,15 @@
         <v>2007</v>
       </c>
       <c r="B16" s="10">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="10">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1242,15 +1241,15 @@
         <v>2005</v>
       </c>
       <c r="B18" s="10">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1258,15 +1257,15 @@
         <v>2003</v>
       </c>
       <c r="B20" s="10">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1274,15 +1273,15 @@
         <v>2001</v>
       </c>
       <c r="B22" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2000</v>
       </c>
       <c r="B23" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1290,15 +1289,15 @@
         <v>1999</v>
       </c>
       <c r="B24" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1306,15 +1305,15 @@
         <v>1997</v>
       </c>
       <c r="B26" s="10">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1996</v>
       </c>
       <c r="B27" s="10">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1322,15 +1321,15 @@
         <v>1995</v>
       </c>
       <c r="B28" s="10">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1994</v>
       </c>
       <c r="B29" s="10">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1338,15 +1337,15 @@
         <v>1993</v>
       </c>
       <c r="B30" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1992</v>
       </c>
       <c r="B31" s="10">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1354,15 +1353,15 @@
         <v>1991</v>
       </c>
       <c r="B32" s="10">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1990</v>
       </c>
       <c r="B33" s="10">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1370,15 +1369,15 @@
         <v>1989</v>
       </c>
       <c r="B34" s="10">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1988</v>
       </c>
       <c r="B35" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1386,15 +1385,15 @@
         <v>1987</v>
       </c>
       <c r="B36" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1986</v>
       </c>
       <c r="B37" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1402,15 +1401,15 @@
         <v>1985</v>
       </c>
       <c r="B38" s="10">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>1984</v>
       </c>
       <c r="B39" s="10">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1418,15 +1417,15 @@
         <v>1983</v>
       </c>
       <c r="B40" s="10">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>1982</v>
       </c>
       <c r="B41" s="10">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1438,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1461,16 +1460,16 @@
       <c r="A2" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
+      <c r="B3" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1482,11 +1481,11 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1494,15 +1493,15 @@
         <v>2017</v>
       </c>
       <c r="B6" s="13">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="13">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1510,15 +1509,15 @@
         <v>2015</v>
       </c>
       <c r="B8" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="13">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1526,15 +1525,15 @@
         <v>2013</v>
       </c>
       <c r="B10" s="13">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="13">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1546,11 +1545,11 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="13">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1558,15 +1557,15 @@
         <v>2009</v>
       </c>
       <c r="B14" s="13">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
       <c r="B15" s="13">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1574,15 +1573,15 @@
         <v>2007</v>
       </c>
       <c r="B16" s="13">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="13">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1590,15 +1589,15 @@
         <v>2005</v>
       </c>
       <c r="B18" s="13">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="13">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1606,15 +1605,15 @@
         <v>2003</v>
       </c>
       <c r="B20" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="13">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1622,15 +1621,15 @@
         <v>2001</v>
       </c>
       <c r="B22" s="13">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2000</v>
       </c>
       <c r="B23" s="13">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1638,15 +1637,15 @@
         <v>1999</v>
       </c>
       <c r="B24" s="13">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="13">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1654,15 +1653,15 @@
         <v>1997</v>
       </c>
       <c r="B26" s="13">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1996</v>
       </c>
       <c r="B27" s="13">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1670,15 +1669,15 @@
         <v>1995</v>
       </c>
       <c r="B28" s="13">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1994</v>
       </c>
       <c r="B29" s="13">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1686,15 +1685,15 @@
         <v>1993</v>
       </c>
       <c r="B30" s="13">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1992</v>
       </c>
       <c r="B31" s="13">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1702,15 +1701,15 @@
         <v>1991</v>
       </c>
       <c r="B32" s="13">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1990</v>
       </c>
       <c r="B33" s="13">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1718,15 +1717,15 @@
         <v>1989</v>
       </c>
       <c r="B34" s="13">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1988</v>
       </c>
       <c r="B35" s="13">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1734,15 +1733,15 @@
         <v>1987</v>
       </c>
       <c r="B36" s="13">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1986</v>
       </c>
       <c r="B37" s="13">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1750,15 +1749,15 @@
         <v>1985</v>
       </c>
       <c r="B38" s="13">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>1984</v>
       </c>
       <c r="B39" s="13">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1766,15 +1765,15 @@
         <v>1983</v>
       </c>
       <c r="B40" s="13">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>1982</v>
       </c>
       <c r="B41" s="13">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1786,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1804,16 +1803,16 @@
       <c r="A2" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
+      <c r="B3" s="11">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1821,15 +1820,15 @@
         <v>2019</v>
       </c>
       <c r="B4" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1841,11 +1840,11 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1853,15 +1852,15 @@
         <v>2015</v>
       </c>
       <c r="B8" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1869,15 +1868,15 @@
         <v>2013</v>
       </c>
       <c r="B10" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1889,11 +1888,11 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1901,15 +1900,15 @@
         <v>2009</v>
       </c>
       <c r="B14" s="11">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
       <c r="B15" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1917,15 +1916,15 @@
         <v>2007</v>
       </c>
       <c r="B16" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="11">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1933,11 +1932,11 @@
         <v>2005</v>
       </c>
       <c r="B18" s="11">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="11">
@@ -1949,15 +1948,15 @@
         <v>2003</v>
       </c>
       <c r="B20" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1965,15 +1964,15 @@
         <v>2001</v>
       </c>
       <c r="B22" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2000</v>
       </c>
       <c r="B23" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1981,15 +1980,15 @@
         <v>1999</v>
       </c>
       <c r="B24" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1997,15 +1996,15 @@
         <v>1997</v>
       </c>
       <c r="B26" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1996</v>
       </c>
       <c r="B27" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2013,15 +2012,15 @@
         <v>1995</v>
       </c>
       <c r="B28" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1994</v>
       </c>
       <c r="B29" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2029,15 +2028,15 @@
         <v>1993</v>
       </c>
       <c r="B30" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1992</v>
       </c>
       <c r="B31" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2045,15 +2044,15 @@
         <v>1991</v>
       </c>
       <c r="B32" s="11">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1990</v>
       </c>
       <c r="B33" s="11">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2061,15 +2060,15 @@
         <v>1989</v>
       </c>
       <c r="B34" s="11">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1988</v>
       </c>
       <c r="B35" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2077,15 +2076,15 @@
         <v>1987</v>
       </c>
       <c r="B36" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1986</v>
       </c>
       <c r="B37" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2093,15 +2092,15 @@
         <v>1985</v>
       </c>
       <c r="B38" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>1984</v>
       </c>
       <c r="B39" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2109,15 +2108,15 @@
         <v>1983</v>
       </c>
       <c r="B40" s="11">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>1982</v>
       </c>
       <c r="B41" s="11">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2129,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2174,24 +2173,24 @@
         <v>91</v>
       </c>
       <c r="E2" s="14">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
       </c>
       <c r="C3" s="14">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14">
+        <v>81</v>
+      </c>
+      <c r="E3" s="14">
         <v>74</v>
-      </c>
-      <c r="D3" s="14">
-        <v>91</v>
-      </c>
-      <c r="E3" s="14">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2202,30 +2201,30 @@
         <v>3</v>
       </c>
       <c r="C4" s="14">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" s="14">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" s="14">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
       </c>
       <c r="C5" s="14">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="14">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="14">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2236,30 +2235,30 @@
         <v>5</v>
       </c>
       <c r="C6" s="14">
-        <v>55</v>
-      </c>
-      <c r="D6" s="14">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="15">
+        <v>62</v>
       </c>
       <c r="E6" s="14">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
       </c>
       <c r="C7" s="14">
-        <v>51</v>
-      </c>
-      <c r="D7" s="15">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="14">
+        <v>58</v>
       </c>
       <c r="E7" s="14">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2270,30 +2269,30 @@
         <v>7</v>
       </c>
       <c r="C8" s="14">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14">
+        <v>52</v>
+      </c>
+      <c r="E8" s="14">
         <v>47</v>
       </c>
-      <c r="D8" s="14">
-        <v>58</v>
-      </c>
-      <c r="E8" s="14">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
       </c>
       <c r="C9" s="14">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="14">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9" s="14">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2304,30 +2303,30 @@
         <v>9</v>
       </c>
       <c r="C10" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="14">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="14">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
       <c r="C11" s="14">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14">
         <v>35</v>
-      </c>
-      <c r="D11" s="14">
-        <v>43</v>
-      </c>
-      <c r="E11" s="14">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2338,30 +2337,30 @@
         <v>11</v>
       </c>
       <c r="C12" s="14">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14">
         <v>31</v>
       </c>
-      <c r="D12" s="14">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14">
-        <v>35</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="14">
         <v>12</v>
       </c>
       <c r="C13" s="14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2372,30 +2371,30 @@
         <v>13</v>
       </c>
       <c r="C14" s="14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="14">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="14">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
       <c r="B15" s="14">
         <v>14</v>
       </c>
       <c r="C15" s="14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="14">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2406,30 +2405,30 @@
         <v>15</v>
       </c>
       <c r="C16" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="14">
         <v>16</v>
       </c>
       <c r="C17" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="14">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2440,30 +2439,30 @@
         <v>17</v>
       </c>
       <c r="C18" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="14">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="14">
         <v>18</v>
       </c>
       <c r="C19" s="14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" s="14">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2474,30 +2473,30 @@
         <v>19</v>
       </c>
       <c r="C20" s="14">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14">
         <v>13</v>
       </c>
-      <c r="D20" s="14">
-        <v>17</v>
-      </c>
       <c r="E20" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="14">
         <v>20</v>
       </c>
       <c r="C21" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2507,86 +2506,72 @@
       <c r="B22" s="14">
         <v>21</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="16">
         <v>11</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="16">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16">
         <v>11</v>
       </c>
-      <c r="E22" s="14">
-        <v>11</v>
-      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="14">
-        <v>22</v>
-      </c>
-      <c r="C23" s="16">
-        <v>11</v>
-      </c>
-      <c r="D23" s="16">
-        <v>9</v>
-      </c>
-      <c r="E23" s="16">
-        <v>11</v>
-      </c>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="12.75"/>
@@ -2656,7 +2641,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="14">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F2" s="14">
         <v>74</v>
@@ -2672,29 +2657,29 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
       </c>
       <c r="C3" s="14">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14">
+        <v>82</v>
+      </c>
+      <c r="E3" s="14">
+        <v>76</v>
+      </c>
+      <c r="F3" s="14">
+        <v>64</v>
+      </c>
+      <c r="G3" s="14">
         <v>78</v>
       </c>
-      <c r="D3" s="14">
-        <v>92</v>
-      </c>
-      <c r="E3" s="14">
-        <v>92</v>
-      </c>
-      <c r="F3" s="14">
-        <v>75</v>
-      </c>
-      <c r="G3" s="14">
-        <v>93</v>
-      </c>
       <c r="H3" s="14">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I3" s="14">
         <v>2</v>
@@ -2708,51 +2693,51 @@
         <v>3</v>
       </c>
       <c r="C4" s="14">
+        <v>64</v>
+      </c>
+      <c r="D4" s="14">
+        <v>75</v>
+      </c>
+      <c r="E4" s="14">
         <v>70</v>
       </c>
-      <c r="D4" s="14">
-        <v>82</v>
-      </c>
-      <c r="E4" s="14">
-        <v>76</v>
-      </c>
       <c r="F4" s="14">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H4" s="14">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I4" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
       </c>
       <c r="C5" s="14">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="14">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E5" s="14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F5" s="14">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5" s="14">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H5" s="14">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I5" s="14">
         <v>4</v>
@@ -2766,51 +2751,51 @@
         <v>5</v>
       </c>
       <c r="C6" s="14">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6" s="14">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F6" s="14">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G6" s="14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I6" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
       </c>
       <c r="C7" s="14">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14">
+        <v>56</v>
+      </c>
+      <c r="E7" s="14">
         <v>52</v>
       </c>
-      <c r="D7" s="14">
-        <v>62</v>
-      </c>
-      <c r="E7" s="14">
-        <v>57</v>
-      </c>
       <c r="F7" s="14">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="14">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H7" s="14">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="14">
         <v>6</v>
@@ -2824,51 +2809,51 @@
         <v>7</v>
       </c>
       <c r="C8" s="14">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="14">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F8" s="14">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="14">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I8" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
       </c>
       <c r="C9" s="14">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14">
         <v>42</v>
       </c>
-      <c r="D9" s="14">
-        <v>50</v>
-      </c>
-      <c r="E9" s="14">
-        <v>46</v>
-      </c>
       <c r="F9" s="14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9" s="14">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I9" s="14">
         <v>8</v>
@@ -2882,51 +2867,51 @@
         <v>9</v>
       </c>
       <c r="C10" s="14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" s="14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H10" s="14">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I10" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
       <c r="C11" s="14">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="14">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="14">
         <v>10</v>
@@ -2940,53 +2925,53 @@
         <v>11</v>
       </c>
       <c r="C12" s="14">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14">
         <v>30</v>
       </c>
-      <c r="D12" s="14">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14">
-        <v>33</v>
-      </c>
       <c r="F12" s="14">
+        <v>19</v>
+      </c>
+      <c r="G12" s="14">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14">
         <v>21</v>
-      </c>
-      <c r="G12" s="14">
-        <v>26</v>
-      </c>
-      <c r="H12" s="14">
-        <v>24</v>
       </c>
       <c r="I12" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="16">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
-        <v>27</v>
-      </c>
-      <c r="D13" s="14">
-        <v>32</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="C13" s="16">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16">
         <v>30</v>
       </c>
-      <c r="F13" s="14">
+      <c r="E13" s="16">
+        <v>28</v>
+      </c>
+      <c r="F13" s="16">
+        <v>17</v>
+      </c>
+      <c r="G13" s="16">
+        <v>21</v>
+      </c>
+      <c r="H13" s="16">
         <v>19</v>
       </c>
-      <c r="G13" s="14">
-        <v>23</v>
-      </c>
-      <c r="H13" s="14">
-        <v>21</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="I13" s="16">
         <v>12</v>
       </c>
     </row>
@@ -2994,57 +2979,57 @@
       <c r="A14" s="3">
         <v>2009</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="16">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
-        <v>25</v>
+      <c r="C14" s="15">
+        <v>23</v>
       </c>
       <c r="D14" s="16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="16">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16">
+        <v>18</v>
+      </c>
+      <c r="H14" s="16">
         <v>17</v>
       </c>
-      <c r="G14" s="16">
-        <v>21</v>
-      </c>
-      <c r="H14" s="16">
-        <v>19</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="I14" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>14</v>
       </c>
-      <c r="C15" s="15">
-        <v>23</v>
+      <c r="C15" s="16">
+        <v>22</v>
       </c>
       <c r="D15" s="16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="16">
         <v>15</v>
       </c>
       <c r="G15" s="16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="16">
         <v>17</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3052,46 +3037,46 @@
       <c r="A16" s="3">
         <v>2007</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="16">
         <v>15</v>
       </c>
       <c r="C16" s="16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
+        <v>23</v>
+      </c>
+      <c r="E16" s="16">
         <v>22</v>
-      </c>
-      <c r="D16" s="16">
-        <v>26</v>
-      </c>
-      <c r="E16" s="16">
-        <v>24</v>
       </c>
       <c r="F16" s="16">
         <v>15</v>
       </c>
       <c r="G16" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="16">
         <v>17</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="16">
         <v>16</v>
       </c>
       <c r="C17" s="16">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16">
         <v>20</v>
-      </c>
-      <c r="D17" s="16">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16">
-        <v>22</v>
       </c>
       <c r="F17" s="16">
         <v>15</v>
@@ -3102,7 +3087,7 @@
       <c r="H17" s="16">
         <v>17</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3110,14 +3095,14 @@
       <c r="A18" s="3">
         <v>2005</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="16">
         <v>17</v>
       </c>
       <c r="C18" s="16">
         <v>18</v>
       </c>
       <c r="D18" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="16">
         <v>20</v>
@@ -3131,22 +3116,22 @@
       <c r="H18" s="16">
         <v>17</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="16">
         <v>18</v>
       </c>
       <c r="C19" s="16">
         <v>18</v>
       </c>
       <c r="D19" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16">
         <v>20</v>
@@ -3160,7 +3145,7 @@
       <c r="H19" s="16">
         <v>17</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="16">
         <v>18</v>
       </c>
     </row>
@@ -3168,7 +3153,7 @@
       <c r="A20" s="3">
         <v>2003</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="16">
         <v>19</v>
       </c>
       <c r="C20" s="16">
@@ -3189,98 +3174,72 @@
       <c r="H20" s="16">
         <v>17</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="16">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B21" s="14">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16">
-        <v>18</v>
-      </c>
-      <c r="D21" s="16">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16">
-        <v>15</v>
-      </c>
-      <c r="G21" s="16">
-        <v>14</v>
-      </c>
-      <c r="H21" s="16">
-        <v>17</v>
-      </c>
-      <c r="I21" s="14">
-        <v>20</v>
-      </c>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,16 +3250,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="5.7109375" style="14"/>
-    <col min="23" max="23" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="14"/>
+    <col min="2" max="24" width="5.7109375" style="14"/>
     <col min="25" max="25" width="13" style="14" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="5.7109375" style="14"/>
   </cols>
@@ -3450,7 +3407,7 @@
         <v>98</v>
       </c>
       <c r="W2" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X2" s="16">
         <v>1</v>
@@ -3460,71 +3417,71 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E3" s="20">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F3" s="21">
+        <v>68</v>
+      </c>
+      <c r="G3" s="20">
+        <v>73</v>
+      </c>
+      <c r="H3" s="20">
+        <v>76</v>
+      </c>
+      <c r="I3" s="20">
+        <v>79</v>
+      </c>
+      <c r="J3" s="21">
+        <v>82</v>
+      </c>
+      <c r="K3" s="21">
         <v>84</v>
       </c>
-      <c r="G3" s="20">
-        <v>86</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="L3" s="21">
+        <v>85</v>
+      </c>
+      <c r="M3" s="18">
+        <v>87</v>
+      </c>
+      <c r="N3" s="12">
         <v>88</v>
       </c>
-      <c r="I3" s="20">
-        <v>90</v>
-      </c>
-      <c r="J3" s="21">
+      <c r="O3" s="12">
+        <v>89</v>
+      </c>
+      <c r="P3" s="12">
         <v>91</v>
       </c>
-      <c r="K3" s="21">
-        <v>92</v>
-      </c>
-      <c r="L3" s="21">
+      <c r="Q3" s="12">
+        <v>91</v>
+      </c>
+      <c r="R3" s="12">
         <v>93</v>
       </c>
-      <c r="M3" s="18">
-        <v>93</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="S3" s="12">
         <v>94</v>
       </c>
-      <c r="O3" s="12">
+      <c r="T3" s="12">
         <v>95</v>
       </c>
-      <c r="P3" s="12">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="U3" s="12">
         <v>96</v>
       </c>
-      <c r="R3" s="12">
-        <v>96</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="V3" s="12">
         <v>97</v>
-      </c>
-      <c r="T3" s="12">
-        <v>97</v>
-      </c>
-      <c r="U3" s="12">
-        <v>98</v>
-      </c>
-      <c r="V3" s="12">
-        <v>98</v>
       </c>
       <c r="W3" s="12">
         <v>98</v>
@@ -3532,7 +3489,7 @@
       <c r="X3" s="16">
         <v>2</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <v>2020</v>
       </c>
     </row>
@@ -3544,67 +3501,67 @@
         <v>3</v>
       </c>
       <c r="C4" s="20">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D4" s="20">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E4" s="20">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F4" s="21">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G4" s="20">
+        <v>59</v>
+      </c>
+      <c r="H4" s="20">
+        <v>65</v>
+      </c>
+      <c r="I4" s="20">
+        <v>69</v>
+      </c>
+      <c r="J4" s="21">
         <v>73</v>
       </c>
-      <c r="H4" s="20">
-        <v>76</v>
-      </c>
-      <c r="I4" s="20">
-        <v>79</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="K4" s="21">
+        <v>75</v>
+      </c>
+      <c r="L4" s="21">
+        <v>78</v>
+      </c>
+      <c r="M4" s="18">
+        <v>80</v>
+      </c>
+      <c r="N4" s="12">
         <v>82</v>
       </c>
-      <c r="K4" s="21">
-        <v>84</v>
-      </c>
-      <c r="L4" s="21">
-        <v>85</v>
-      </c>
-      <c r="M4" s="18">
+      <c r="O4" s="12">
+        <v>83</v>
+      </c>
+      <c r="P4" s="12">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="12">
         <v>87</v>
       </c>
-      <c r="N4" s="12">
-        <v>88</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="R4" s="12">
         <v>89</v>
       </c>
-      <c r="P4" s="12">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>91</v>
-      </c>
-      <c r="R4" s="12">
-        <v>93</v>
-      </c>
       <c r="S4" s="12">
+        <v>90</v>
+      </c>
+      <c r="T4" s="12">
+        <v>92</v>
+      </c>
+      <c r="U4" s="12">
         <v>94</v>
       </c>
-      <c r="T4" s="12">
+      <c r="V4" s="12">
         <v>95</v>
       </c>
-      <c r="U4" s="12">
+      <c r="W4" s="12">
         <v>96</v>
-      </c>
-      <c r="V4" s="12">
-        <v>97</v>
-      </c>
-      <c r="W4" s="12">
-        <v>98</v>
       </c>
       <c r="X4" s="16">
         <v>3</v>
@@ -3614,79 +3571,79 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="18">
         <v>4</v>
       </c>
       <c r="C5" s="20">
+        <v>6</v>
+      </c>
+      <c r="D5" s="20">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
-        <v>31</v>
-      </c>
       <c r="E5" s="20">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F5" s="21">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G5" s="20">
+        <v>47</v>
+      </c>
+      <c r="H5" s="20">
+        <v>54</v>
+      </c>
+      <c r="I5" s="20">
         <v>59</v>
       </c>
-      <c r="H5" s="20">
-        <v>65</v>
-      </c>
-      <c r="I5" s="20">
-        <v>69</v>
-      </c>
       <c r="J5" s="21">
+        <v>63</v>
+      </c>
+      <c r="K5" s="21">
+        <v>67</v>
+      </c>
+      <c r="L5" s="21">
+        <v>70</v>
+      </c>
+      <c r="M5" s="18">
         <v>73</v>
       </c>
-      <c r="K5" s="21">
+      <c r="N5" s="12">
         <v>75</v>
       </c>
-      <c r="L5" s="21">
+      <c r="O5" s="12">
         <v>78</v>
       </c>
-      <c r="M5" s="18">
-        <v>80</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="P5" s="12">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="23">
         <v>82</v>
       </c>
-      <c r="O5" s="12">
-        <v>83</v>
-      </c>
-      <c r="P5" s="12">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="R5" s="12">
+        <v>85</v>
+      </c>
+      <c r="S5" s="12">
         <v>87</v>
       </c>
-      <c r="R5" s="12">
+      <c r="T5" s="12">
         <v>89</v>
       </c>
-      <c r="S5" s="12">
-        <v>90</v>
-      </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <v>92</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <v>94</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <v>95</v>
-      </c>
-      <c r="W5" s="12">
-        <v>96</v>
       </c>
       <c r="X5" s="16">
         <v>4</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="4">
         <v>2018</v>
       </c>
     </row>
@@ -3694,71 +3651,69 @@
       <c r="A6" s="3">
         <v>2017</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="20">
-        <v>6</v>
-      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="20">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F6" s="21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G6" s="20">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H6" s="20">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I6" s="20">
+        <v>49</v>
+      </c>
+      <c r="J6" s="21">
+        <v>55</v>
+      </c>
+      <c r="K6" s="21">
         <v>59</v>
       </c>
-      <c r="J6" s="21">
+      <c r="L6" s="21">
         <v>63</v>
       </c>
-      <c r="K6" s="21">
-        <v>67</v>
-      </c>
-      <c r="L6" s="21">
-        <v>70</v>
-      </c>
       <c r="M6" s="18">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N6" s="12">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O6" s="12">
+        <v>72</v>
+      </c>
+      <c r="P6" s="12">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="23">
         <v>78</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="12">
         <v>81</v>
       </c>
-      <c r="Q6" s="23">
-        <v>82</v>
-      </c>
-      <c r="R6" s="12">
-        <v>85</v>
-      </c>
       <c r="S6" s="12">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T6" s="12">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U6" s="12">
+        <v>90</v>
+      </c>
+      <c r="V6" s="12">
         <v>92</v>
       </c>
-      <c r="V6" s="12">
+      <c r="W6" s="12">
         <v>94</v>
-      </c>
-      <c r="W6" s="12">
-        <v>95</v>
       </c>
       <c r="X6" s="16">
         <v>5</v>
@@ -3768,77 +3723,77 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>6</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="20">
+        <v>9</v>
+      </c>
+      <c r="F7" s="21">
         <v>17</v>
       </c>
-      <c r="F7" s="21">
-        <v>26</v>
-      </c>
       <c r="G7" s="20">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H7" s="20">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I7" s="20">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J7" s="21">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K7" s="21">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L7" s="21">
+        <v>56</v>
+      </c>
+      <c r="M7" s="18">
+        <v>60</v>
+      </c>
+      <c r="N7" s="12">
         <v>63</v>
       </c>
-      <c r="M7" s="18">
+      <c r="O7" s="12">
         <v>66</v>
       </c>
-      <c r="N7" s="12">
-        <v>69</v>
-      </c>
-      <c r="O7" s="12">
-        <v>72</v>
-      </c>
       <c r="P7" s="12">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>73</v>
       </c>
       <c r="R7" s="12">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S7" s="12">
+        <v>80</v>
+      </c>
+      <c r="T7" s="12">
         <v>83</v>
       </c>
-      <c r="T7" s="12">
-        <v>86</v>
-      </c>
       <c r="U7" s="12">
+        <v>87</v>
+      </c>
+      <c r="V7" s="12">
         <v>90</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>92</v>
-      </c>
-      <c r="W7" s="12">
-        <v>94</v>
       </c>
       <c r="X7" s="16">
         <v>6</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="4">
         <v>2016</v>
       </c>
     </row>
@@ -3850,65 +3805,63 @@
         <v>7</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="20">
-        <v>3</v>
-      </c>
+      <c r="D8" s="20"/>
       <c r="E8" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" s="21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G8" s="20">
+        <v>18</v>
+      </c>
+      <c r="H8" s="20">
         <v>25</v>
       </c>
-      <c r="H8" s="20">
-        <v>33</v>
-      </c>
       <c r="I8" s="20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J8" s="21">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K8" s="21">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L8" s="21">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M8" s="18">
+        <v>53</v>
+      </c>
+      <c r="N8" s="12">
+        <v>57</v>
+      </c>
+      <c r="O8" s="12">
         <v>60</v>
       </c>
-      <c r="N8" s="12">
-        <v>63</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="P8" s="12">
         <v>66</v>
       </c>
-      <c r="P8" s="12">
-        <v>71</v>
-      </c>
       <c r="Q8" s="24">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R8" s="12">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S8" s="12">
+        <v>76</v>
+      </c>
+      <c r="T8" s="12">
         <v>80</v>
       </c>
-      <c r="T8" s="12">
-        <v>83</v>
-      </c>
       <c r="U8" s="12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V8" s="12">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W8" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X8" s="16">
         <v>7</v>
@@ -3918,7 +3871,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
       <c r="B9" s="18">
@@ -3927,66 +3880,66 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" s="20">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20">
         <v>18</v>
       </c>
-      <c r="H9" s="20">
-        <v>25</v>
-      </c>
       <c r="I9" s="20">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J9" s="21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K9" s="21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L9" s="21">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M9" s="18">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N9" s="12">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O9" s="12">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P9" s="12">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="24">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>63</v>
+      </c>
+      <c r="R9" s="12">
         <v>68</v>
       </c>
-      <c r="R9" s="12">
+      <c r="S9" s="12">
         <v>72</v>
       </c>
-      <c r="S9" s="12">
-        <v>76</v>
-      </c>
       <c r="T9" s="12">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U9" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V9" s="12">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="12">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X9" s="16">
         <v>8</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="4">
         <v>2014</v>
       </c>
     </row>
@@ -3994,67 +3947,65 @@
       <c r="A10" s="3">
         <v>2013</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>9</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="20">
+        <v>7</v>
+      </c>
+      <c r="H10" s="20">
         <v>12</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>18</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="21">
         <v>24</v>
       </c>
-      <c r="J10" s="21">
-        <v>31</v>
-      </c>
       <c r="K10" s="21">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L10" s="21">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M10" s="18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O10" s="12">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P10" s="12">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="12">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R10" s="12">
+        <v>64</v>
+      </c>
+      <c r="S10" s="12">
         <v>68</v>
       </c>
-      <c r="S10" s="12">
-        <v>72</v>
-      </c>
       <c r="T10" s="12">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U10" s="12">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V10" s="12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W10" s="12">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X10" s="16">
         <v>9</v>
@@ -4064,73 +4015,71 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2012</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>10</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="21">
-        <v>3</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J11" s="21">
+        <v>19</v>
+      </c>
+      <c r="K11" s="21">
         <v>24</v>
       </c>
-      <c r="K11" s="21">
-        <v>30</v>
-      </c>
       <c r="L11" s="21">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M11" s="18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N11" s="12">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O11" s="12">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P11" s="12">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="12">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R11" s="12">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S11" s="12">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T11" s="12">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U11" s="12">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V11" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W11" s="12">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X11" s="16">
         <v>10</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="4">
         <v>2012</v>
       </c>
     </row>
@@ -4146,55 +4095,55 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I12" s="20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" s="21">
+        <v>14</v>
+      </c>
+      <c r="K12" s="21">
         <v>19</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="21">
         <v>24</v>
       </c>
-      <c r="L12" s="21">
+      <c r="M12" s="18">
         <v>29</v>
       </c>
-      <c r="M12" s="18">
+      <c r="N12" s="12">
         <v>34</v>
       </c>
-      <c r="N12" s="12">
-        <v>39</v>
-      </c>
       <c r="O12" s="12">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P12" s="12">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="12">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R12" s="12">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S12" s="12">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T12" s="12">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U12" s="12">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V12" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W12" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X12" s="16">
         <v>11</v>
@@ -4204,7 +4153,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
       <c r="B13" s="18">
@@ -4214,61 +4163,59 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="21">
+        <v>15</v>
+      </c>
+      <c r="L13" s="21">
         <v>19</v>
       </c>
-      <c r="L13" s="21">
+      <c r="M13" s="18">
         <v>24</v>
       </c>
-      <c r="M13" s="18">
-        <v>29</v>
-      </c>
       <c r="N13" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O13" s="12">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P13" s="12">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R13" s="12">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S13" s="12">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T13" s="12">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U13" s="12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V13" s="12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W13" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X13" s="16">
         <v>12</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="4">
         <v>2010</v>
       </c>
     </row>
@@ -4276,7 +4223,7 @@
       <c r="A14" s="3">
         <v>2009</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>13</v>
       </c>
       <c r="C14" s="20"/>
@@ -4284,53 +4231,51 @@
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="20">
-        <v>3</v>
-      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="21">
+        <v>8</v>
+      </c>
+      <c r="K14" s="21">
         <v>11</v>
       </c>
-      <c r="K14" s="21">
+      <c r="L14" s="21">
         <v>15</v>
       </c>
-      <c r="L14" s="21">
-        <v>19</v>
-      </c>
       <c r="M14" s="18">
+        <v>20</v>
+      </c>
+      <c r="N14" s="12">
         <v>24</v>
       </c>
-      <c r="N14" s="12">
+      <c r="O14" s="12">
         <v>28</v>
       </c>
-      <c r="O14" s="12">
-        <v>33</v>
-      </c>
       <c r="P14" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R14" s="12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S14" s="12">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T14" s="12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U14" s="12">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V14" s="12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W14" s="12">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="16">
         <v>13</v>
@@ -4340,10 +4285,10 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>14</v>
       </c>
       <c r="C15" s="20"/>
@@ -4353,54 +4298,54 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L15" s="21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M15" s="18">
+        <v>16</v>
+      </c>
+      <c r="N15" s="12">
         <v>20</v>
       </c>
-      <c r="N15" s="12">
+      <c r="O15" s="12">
         <v>24</v>
       </c>
-      <c r="O15" s="12">
-        <v>28</v>
-      </c>
       <c r="P15" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="12">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R15" s="12">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S15" s="12">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T15" s="12">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U15" s="12">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V15" s="12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W15" s="12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X15" s="16">
         <v>14</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="4">
         <v>2008</v>
       </c>
     </row>
@@ -4417,50 +4362,48 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="20">
-        <v>2</v>
-      </c>
+      <c r="I16" s="20"/>
       <c r="J16" s="21">
+        <v>3</v>
+      </c>
+      <c r="K16" s="21">
         <v>6</v>
       </c>
-      <c r="K16" s="21">
-        <v>9</v>
-      </c>
       <c r="L16" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" s="18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N16" s="12">
+        <v>17</v>
+      </c>
+      <c r="O16" s="12">
         <v>20</v>
       </c>
-      <c r="O16" s="12">
-        <v>24</v>
-      </c>
       <c r="P16" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="12">
         <v>32</v>
       </c>
-      <c r="Q16" s="12">
-        <v>36</v>
-      </c>
       <c r="R16" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S16" s="12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T16" s="12">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U16" s="12">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V16" s="12">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W16" s="12">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X16" s="16">
         <v>15</v>
@@ -4470,7 +4413,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" s="18">
@@ -4484,51 +4427,51 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17" s="21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M17" s="18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="12">
+        <v>14</v>
+      </c>
+      <c r="O17" s="12">
         <v>17</v>
       </c>
-      <c r="O17" s="12">
-        <v>20</v>
-      </c>
       <c r="P17" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="12">
         <v>28</v>
       </c>
-      <c r="Q17" s="12">
-        <v>32</v>
-      </c>
       <c r="R17" s="12">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S17" s="12">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T17" s="12">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U17" s="12">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V17" s="12">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W17" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X17" s="16">
         <v>16</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="4">
         <v>2006</v>
       </c>
     </row>
@@ -4536,7 +4479,7 @@
       <c r="A18" s="3">
         <v>2005</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>17</v>
       </c>
       <c r="C18" s="20"/>
@@ -4546,47 +4489,45 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18" s="18">
+        <v>8</v>
+      </c>
+      <c r="N18" s="12">
         <v>11</v>
       </c>
-      <c r="N18" s="12">
+      <c r="O18" s="12">
         <v>14</v>
       </c>
-      <c r="O18" s="12">
-        <v>17</v>
-      </c>
       <c r="P18" s="12">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="12">
         <v>25</v>
       </c>
-      <c r="Q18" s="12">
-        <v>28</v>
-      </c>
       <c r="R18" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S18" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T18" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U18" s="12">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V18" s="12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W18" s="12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X18" s="16">
         <v>17</v>
@@ -4596,10 +4537,10 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>18</v>
       </c>
       <c r="C19" s="20"/>
@@ -4610,49 +4551,47 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="21">
-        <v>2</v>
-      </c>
+      <c r="K19" s="21"/>
       <c r="L19" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O19" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P19" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R19" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S19" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T19" s="12">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U19" s="12">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" s="12">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W19" s="12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X19" s="16">
         <v>18</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="4">
         <v>2004</v>
       </c>
     </row>
@@ -4673,40 +4612,40 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N20" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P20" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="12">
         <v>18</v>
       </c>
-      <c r="Q20" s="12">
-        <v>22</v>
-      </c>
       <c r="R20" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S20" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T20" s="12">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U20" s="12">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V20" s="12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W20" s="12">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X20" s="16">
         <v>19</v>
@@ -4716,7 +4655,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="18">
@@ -4731,46 +4670,44 @@
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="21">
-        <v>1</v>
-      </c>
+      <c r="L21" s="21"/>
       <c r="M21" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O21" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P21" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R21" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S21" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T21" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U21" s="12">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V21" s="12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W21" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X21" s="16">
         <v>20</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="4">
         <v>2002</v>
       </c>
     </row>
@@ -4778,7 +4715,7 @@
       <c r="A22" s="3">
         <v>2001</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>21</v>
       </c>
       <c r="C22" s="20"/>
@@ -4791,38 +4728,36 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="18">
-        <v>2</v>
-      </c>
+      <c r="M22" s="18"/>
       <c r="N22" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P22" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R22" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S22" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T22" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U22" s="12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V22" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W22" s="12">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X22" s="16">
         <v>21</v>
@@ -4832,10 +4767,10 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2000</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>22</v>
       </c>
       <c r="C23" s="20"/>
@@ -4850,39 +4785,39 @@
       <c r="L23" s="21"/>
       <c r="M23" s="18"/>
       <c r="N23" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P23" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q23" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R23" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S23" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T23" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U23" s="12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V23" s="12">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W23" s="12">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X23" s="16">
         <v>22</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="4">
         <v>2000</v>
       </c>
     </row>
@@ -4904,35 +4839,33 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="12">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12">
         <v>2</v>
       </c>
-      <c r="O24" s="12">
-        <v>4</v>
-      </c>
       <c r="P24" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R24" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S24" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T24" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U24" s="12">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V24" s="12">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W24" s="12">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X24" s="16">
         <v>23</v>
@@ -4942,7 +4875,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="18">
@@ -4961,36 +4894,36 @@
       <c r="M25" s="18"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S25" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T25" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U25" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V25" s="12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W25" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X25" s="16">
         <v>24</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="4">
         <v>1998</v>
       </c>
     </row>
@@ -4998,7 +4931,7 @@
       <c r="A26" s="3">
         <v>1997</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>25</v>
       </c>
       <c r="C26" s="20"/>
@@ -5013,32 +4946,30 @@
       <c r="L26" s="21"/>
       <c r="M26" s="18"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="12">
-        <v>1</v>
-      </c>
+      <c r="O26" s="12"/>
       <c r="P26" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R26" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T26" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U26" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V26" s="12">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W26" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X26" s="16">
         <v>25</v>
@@ -5048,10 +4979,10 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1996</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>26</v>
       </c>
       <c r="C27" s="20"/>
@@ -5066,35 +4997,35 @@
       <c r="L27" s="21"/>
       <c r="M27" s="18"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="24">
         <v>5</v>
       </c>
-      <c r="Q27" s="12">
-        <v>7</v>
-      </c>
       <c r="R27" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S27" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T27" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U27" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V27" s="12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W27" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X27" s="16">
         <v>26</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="4">
         <v>1996</v>
       </c>
     </row>
@@ -5117,30 +5048,30 @@
       <c r="L28" s="21"/>
       <c r="M28" s="18"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S28" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T28" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U28" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V28" s="12">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W28" s="12">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X28" s="16">
         <v>27</v>
@@ -5150,7 +5081,7 @@
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1994</v>
       </c>
       <c r="B29" s="18">
@@ -5169,34 +5100,32 @@
       <c r="M29" s="18"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="12">
-        <v>1</v>
-      </c>
+      <c r="P29" s="12"/>
       <c r="Q29" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R29" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S29" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T29" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U29" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V29" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W29" s="12">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X29" s="16">
         <v>28</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="4">
         <v>1994</v>
       </c>
     </row>
@@ -5204,7 +5133,7 @@
       <c r="A30" s="3">
         <v>1993</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>29</v>
       </c>
       <c r="C30" s="20"/>
@@ -5222,25 +5151,25 @@
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S30" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U30" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V30" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W30" s="12">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X30" s="16">
         <v>29</v>
@@ -5250,10 +5179,10 @@
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1992</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>30</v>
       </c>
       <c r="C31" s="20"/>
@@ -5270,31 +5199,29 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="24">
-        <v>1</v>
-      </c>
+      <c r="Q31" s="24"/>
       <c r="R31" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S31" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T31" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U31" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V31" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W31" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X31" s="16">
         <v>30</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31" s="4">
         <v>1992</v>
       </c>
     </row>
@@ -5319,24 +5246,24 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="24"/>
+      <c r="Q32" s="12"/>
       <c r="R32" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T32" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U32" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V32" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W32" s="12">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X32" s="16">
         <v>31</v>
@@ -5346,7 +5273,7 @@
       </c>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1990</v>
       </c>
       <c r="B33" s="18">
@@ -5368,27 +5295,27 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T33" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U33" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V33" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W33" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X33" s="16">
         <v>32</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="4">
         <v>1990</v>
       </c>
     </row>
@@ -5396,7 +5323,7 @@
       <c r="A34" s="3">
         <v>1989</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>33</v>
       </c>
       <c r="C34" s="20"/>
@@ -5414,23 +5341,21 @@
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="12">
-        <v>1</v>
-      </c>
+      <c r="R34" s="12"/>
       <c r="S34" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U34" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V34" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W34" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X34" s="16">
         <v>33</v>
@@ -5440,10 +5365,10 @@
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1988</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>34</v>
       </c>
       <c r="C35" s="20"/>
@@ -5463,24 +5388,24 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T35" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U35" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V35" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W35" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X35" s="16">
         <v>34</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="4">
         <v>1988</v>
       </c>
     </row>
@@ -5511,16 +5436,16 @@
         <v>2</v>
       </c>
       <c r="T36" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U36" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V36" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W36" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X36" s="16">
         <v>35</v>
@@ -5530,7 +5455,7 @@
       </c>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1986</v>
       </c>
       <c r="B37" s="18">
@@ -5552,25 +5477,23 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="12">
-        <v>2</v>
-      </c>
+      <c r="S37" s="12"/>
       <c r="T37" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U37" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V37" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W37" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X37" s="16">
         <v>36</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="4">
         <v>1986</v>
       </c>
     </row>
@@ -5578,7 +5501,7 @@
       <c r="A38" s="3">
         <v>1985</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>37</v>
       </c>
       <c r="C38" s="20"/>
@@ -5599,16 +5522,16 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U38" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V38" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W38" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X38" s="16">
         <v>37</v>
@@ -5618,10 +5541,10 @@
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>1984</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <v>38</v>
       </c>
       <c r="C39" s="20"/>
@@ -5642,21 +5565,21 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U39" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V39" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W39" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X39" s="16">
         <v>38</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y39" s="4">
         <v>1984</v>
       </c>
     </row>
@@ -5685,16 +5608,16 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U40" s="12">
         <v>13</v>
       </c>
       <c r="V40" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W40" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X40" s="16">
         <v>39</v>
@@ -5704,7 +5627,7 @@
       </c>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>1982</v>
       </c>
       <c r="B41" s="18">
@@ -5728,21 +5651,21 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U41" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V41" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W41" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X41" s="16">
         <v>40</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="4">
         <v>1982</v>
       </c>
     </row>
@@ -5752,12 +5675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5766,7 +5683,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -5983,24 +5900,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="928b0ed4-59de-4866-ab39-c285c276cabe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="10427840-475b-49c9-8fdb-b62ed56f40ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6008,7 +5914,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6025,4 +5931,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>